--- a/business/financial/Jibres-Financial-Projection-v2.xlsx
+++ b/business/financial/Jibres-Financial-Projection-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269E886-AD22-441B-863C-92542B398C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1F34C-6321-4B25-B7E3-392B24D34EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="9" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -1184,10 +1184,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1195,12 +1195,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="242">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="239">
     <dxf>
       <font>
         <b val="0"/>
@@ -1258,6 +1253,560 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1714,29 +2263,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1755,7 +2282,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1775,8 +2301,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1795,8 +2320,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1815,8 +2339,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1835,8 +2358,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1855,8 +2377,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1875,8 +2396,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1895,8 +2414,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1915,8 +2433,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1935,8 +2451,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1955,8 +2469,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1975,8 +2487,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1995,8 +2505,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2015,8 +2523,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2035,8 +2541,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2055,8 +2560,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2075,8 +2579,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2095,8 +2597,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2115,8 +2615,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2135,8 +2633,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2155,8 +2651,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2175,8 +2670,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2195,7 +2689,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2214,7 +2708,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2233,7 +2727,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2252,7 +2746,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2271,7 +2764,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2290,10 +2782,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2312,523 +2800,10 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -12365,20 +12340,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="241" dataDxfId="240" totalsRowDxfId="239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="238" dataDxfId="237" totalsRowDxfId="236">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="238" totalsRowDxfId="237">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="235" totalsRowDxfId="234">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="232" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="231" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="230" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="233" totalsRowDxfId="232"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="231" totalsRowDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="229" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="228" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="227" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="229" totalsRowDxfId="228" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="226" totalsRowDxfId="225" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12387,51 +12362,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="130" totalsRowDxfId="129">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12440,17 +12415,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="111">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="113">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="110">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="112">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="109">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12459,33 +12434,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="106">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="106">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="103">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="105">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="102">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="104">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="101">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="103">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="100">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="102">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="99">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="101">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="98">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="100">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12494,54 +12469,54 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:J13" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="94">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="94">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="91">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="90">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="89">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G18" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G18" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:G18" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
     <sortCondition ref="B1:B16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="81">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="83" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="82">
+    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="79" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="78">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="81">
+    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="77">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="80">
+    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="76">
       <calculatedColumnFormula>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="79" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="75" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12550,14 +12525,14 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="J1:K3" xr:uid="{97006F0C-AD59-4C54-9C49-941C006952C3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K3">
     <sortCondition descending="1" ref="J1:J3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12566,22 +12541,22 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="N1:R6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:R6">
     <sortCondition ref="N2:N6"/>
     <sortCondition ref="O2:O6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12590,66 +12565,66 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12658,27 +12633,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B22" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B22" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
   <autoFilter ref="A1:B22" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="224"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="222"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="220" dataDxfId="219">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="221" totalsRowDxfId="220">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="218" totalsRowDxfId="217">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="213">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="216" totalsRowDxfId="215"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="214" totalsRowDxfId="213"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="210">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12687,31 +12662,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="210">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="207">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="206"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="204">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="201">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="203"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="201"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="200">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="198"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="197">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12720,34 +12695,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="199" dataDxfId="198" totalsRowDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="196" dataDxfId="195" totalsRowDxfId="194">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="196" totalsRowDxfId="195">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="193" totalsRowDxfId="192">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="187" totalsRowDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="186"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="184" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="183">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="183"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="181" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="180">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="179">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="181">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="178">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12756,16 +12731,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="180" dataDxfId="179" totalsRowDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="176">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="169" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="167" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="165" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12774,16 +12749,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="162" totalsRowDxfId="161">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13521,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -13860,9 +13835,7 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14409,16 +14382,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
@@ -14428,7 +14401,7 @@
         <v>133</v>
       </c>
       <c r="D22" s="60">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -14451,27 +14424,27 @@
       </c>
       <c r="D24" s="61">
         <f t="shared" ref="D24:I24" si="7">D11/(1+v_DiscountRate)^D2</f>
-        <v>-3568536923.0769229</v>
+        <v>-3865915000</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="7"/>
-        <v>-3339249704.1420116</v>
+        <v>-3918980555.5555558</v>
       </c>
       <c r="F24" s="61">
         <f t="shared" si="7"/>
-        <v>1408270004.551661</v>
+        <v>1790491435.1851852</v>
       </c>
       <c r="G24" s="61">
         <f t="shared" si="7"/>
-        <v>13380170575.259964</v>
+        <v>18429352420.910492</v>
       </c>
       <c r="H24" s="61">
         <f t="shared" si="7"/>
-        <v>42913511926.430054</v>
+        <v>64033109020.142097</v>
       </c>
       <c r="I24" s="61">
         <f t="shared" si="7"/>
-        <v>115058556375.97214</v>
+        <v>185990841023.44485</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -14483,27 +14456,27 @@
       </c>
       <c r="D25" s="61">
         <f t="shared" ref="D25:I25" si="8">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
-        <v>976153846.15384614</v>
+        <v>1057500000</v>
       </c>
       <c r="E25" s="61">
         <f t="shared" si="8"/>
-        <v>7175147928.9940825</v>
+        <v>8420833333.333334</v>
       </c>
       <c r="F25" s="61">
         <f t="shared" si="8"/>
-        <v>17385935366.408733</v>
+        <v>22104687500</v>
       </c>
       <c r="G25" s="61">
         <f t="shared" si="8"/>
-        <v>42127458772.451935</v>
+        <v>58024804687.499992</v>
       </c>
       <c r="H25" s="61">
         <f t="shared" si="8"/>
-        <v>102078073179.40274</v>
+        <v>152315112304.68747</v>
       </c>
       <c r="I25" s="61">
         <f t="shared" si="8"/>
-        <v>247343023473.16815</v>
+        <v>399827169799.80463</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -14519,23 +14492,23 @@
       </c>
       <c r="E26" s="61">
         <f>IF(SUM($D$24:E24) + E25 &gt; 0, SUM($D$24:E24) + E25, "-")</f>
-        <v>267361301.77514744</v>
+        <v>635937777.77777863</v>
       </c>
       <c r="F26" s="61">
         <f>IF(SUM($D$24:F24) + F25 &gt; 0, SUM($D$24:F24) + F25, "-")</f>
-        <v>11886418743.741459</v>
+        <v>16110283379.629631</v>
       </c>
       <c r="G26" s="61">
         <f>IF(SUM($D$24:G24) + G25 &gt; 0, SUM($D$24:G24) + G25, "-")</f>
-        <v>50008112725.044624</v>
+        <v>70459752988.040115</v>
       </c>
       <c r="H26" s="61">
         <f>IF(SUM($D$24:H24) + H25 &gt; 0, SUM($D$24:H24) + H25, "-")</f>
-        <v>152872239058.42548</v>
+        <v>228783169625.36969</v>
       </c>
       <c r="I26" s="61">
         <f>IF(SUM($D$24:I24) + I25 &gt; 0, SUM($D$24:I24) + I25, "-")</f>
-        <v>413195745728.16302</v>
+        <v>662286068143.93164</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -14548,23 +14521,23 @@
       </c>
       <c r="E27" s="76">
         <f t="shared" si="9"/>
-        <v>10127.322036937403</v>
+        <v>24088.552188552221</v>
       </c>
       <c r="F27" s="76">
         <f t="shared" si="9"/>
-        <v>450243.13423263101</v>
+        <v>610238.00680415274</v>
       </c>
       <c r="G27" s="76">
         <f t="shared" si="9"/>
-        <v>1894246.6941304782</v>
+        <v>2668930.037425762</v>
       </c>
       <c r="H27" s="76">
         <f t="shared" si="9"/>
-        <v>5790615.1158494502</v>
+        <v>8666029.1524761245</v>
       </c>
       <c r="I27" s="76">
         <f t="shared" si="9"/>
-        <v>15651354.00485466</v>
+        <v>25086593.490300439</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -14584,16 +14557,16 @@
       <c r="I29" s="61"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="55" t="s">
@@ -14668,26 +14641,27 @@
       </c>
       <c r="D33" s="61">
         <f>NPV(v_DiscountRate,D11)</f>
-        <v>-3568536923.0769229</v>
+        <v>-3865915000</v>
       </c>
       <c r="E33" s="61">
         <f>NPV(v_DiscountRate,D11,E11)</f>
-        <v>-6907786627.2189341</v>
+        <v>-7784895555.5555573</v>
       </c>
       <c r="F33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11)</f>
-        <v>-5499516622.6672726</v>
+        <v>-5994404120.3703718</v>
       </c>
       <c r="G33" s="61">
-        <v>3</v>
+        <f>NPV(v_DiscountRate,D11,E11,F11,G11)</f>
+        <v>12434948300.540121</v>
       </c>
       <c r="H33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11)</f>
-        <v>50794165879.022736</v>
+        <v>76468057320.68222</v>
       </c>
       <c r="I33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11,I11)</f>
-        <v>165852722254.99487</v>
+        <v>262458898344.12711</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -14702,14 +14676,14 @@
       <c r="E35" s="74"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" s="61"/>
@@ -15510,7 +15484,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16727,7 +16701,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <v>26400</v>
       </c>
     </row>
@@ -17954,7 +17928,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>

--- a/business/financial/Jibres-Financial-Projection-v2.xlsx
+++ b/business/financial/Jibres-Financial-Projection-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1F34C-6321-4B25-B7E3-392B24D34EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9EBEC-9079-4FCD-97F2-EA11A46B4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="9" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -13496,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -14778,8 +14778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB18F9-F9BE-4D2E-8E8A-5E7D56BD756A}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -17928,7 +17928,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
